--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl5-Gpr75.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,235 +537,1537 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.87530488488643</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H2">
-        <v>6.87530488488643</v>
+        <v>2.799313</v>
       </c>
       <c r="I2">
-        <v>0.3314424897862902</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J2">
-        <v>0.3314424897862902</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.516541972970211</v>
+        <v>0.1679753333333333</v>
       </c>
       <c r="N2">
-        <v>0.516541972970211</v>
+        <v>0.503926</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1710492886071064</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1795354408331383</v>
       </c>
       <c r="Q2">
-        <v>3.551383550010966</v>
+        <v>0.1567385114264445</v>
       </c>
       <c r="R2">
-        <v>3.551383550010966</v>
+        <v>1.410646602838</v>
       </c>
       <c r="S2">
-        <v>0.3314424897862902</v>
+        <v>0.003427496663200495</v>
       </c>
       <c r="T2">
-        <v>0.3314424897862902</v>
+        <v>0.003621164514757179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>8.846178422799589</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H3">
-        <v>8.846178422799589</v>
+        <v>2.799313</v>
       </c>
       <c r="I3">
-        <v>0.4264537283272617</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J3">
-        <v>0.4264537283272617</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.516541972970211</v>
+        <v>0.626867</v>
       </c>
       <c r="N3">
-        <v>0.516541972970211</v>
+        <v>1.880601</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6383386910058478</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6700081550986469</v>
       </c>
       <c r="Q3">
-        <v>4.569422455759409</v>
+        <v>0.5849323141236666</v>
       </c>
       <c r="R3">
-        <v>4.569422455759409</v>
+        <v>5.264390827113</v>
       </c>
       <c r="S3">
-        <v>0.4264537283272617</v>
+        <v>0.01279107180878048</v>
       </c>
       <c r="T3">
-        <v>0.4264537283272617</v>
+        <v>0.01351382069513553</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.17172141548251</v>
+        <v>0.9331043333333334</v>
       </c>
       <c r="H4">
-        <v>4.17172141548251</v>
+        <v>2.799313</v>
       </c>
       <c r="I4">
-        <v>0.2011090061884797</v>
+        <v>0.0200380644147157</v>
       </c>
       <c r="J4">
-        <v>0.2011090061884797</v>
+        <v>0.0201696361339749</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.516541972970211</v>
+        <v>0.03086933333333333</v>
       </c>
       <c r="N4">
-        <v>0.516541972970211</v>
+        <v>0.092608</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.03143424335979272</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.03299376913410951</v>
       </c>
       <c r="Q4">
-        <v>2.154869210635417</v>
+        <v>0.02880430870044445</v>
       </c>
       <c r="R4">
-        <v>2.154869210635417</v>
+        <v>0.259238778304</v>
       </c>
       <c r="S4">
-        <v>0.2011090061884797</v>
+        <v>0.0006298813932713759</v>
       </c>
       <c r="T4">
-        <v>0.2011090061884797</v>
+        <v>0.0006654723181233611</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.9331043333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.799313</v>
+      </c>
+      <c r="I5">
+        <v>0.0200380644147157</v>
+      </c>
+      <c r="J5">
+        <v>0.0201696361339749</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.01706366666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.051191</v>
+      </c>
+      <c r="O5">
+        <v>0.01737593244461763</v>
+      </c>
+      <c r="P5">
+        <v>0.0182379927840381</v>
+      </c>
+      <c r="Q5">
+        <v>0.01592218130922222</v>
+      </c>
+      <c r="R5">
+        <v>0.143299631783</v>
+      </c>
+      <c r="S5">
+        <v>0.0003481800535909966</v>
+      </c>
+      <c r="T5">
+        <v>0.0003678536782681083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.9331043333333334</v>
+      </c>
+      <c r="H6">
+        <v>2.799313</v>
+      </c>
+      <c r="I6">
+        <v>0.0200380644147157</v>
+      </c>
+      <c r="J6">
+        <v>0.0201696361339749</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.5</v>
+      </c>
+      <c r="M6">
+        <v>0.1392535</v>
+      </c>
+      <c r="N6">
+        <v>0.278507</v>
+      </c>
+      <c r="O6">
+        <v>0.1418018445826353</v>
+      </c>
+      <c r="P6">
+        <v>0.09922464215006736</v>
+      </c>
+      <c r="Q6">
+        <v>0.1299380442818333</v>
+      </c>
+      <c r="R6">
+        <v>0.7796282656910001</v>
+      </c>
+      <c r="S6">
+        <v>0.002841434495872351</v>
+      </c>
+      <c r="T6">
+        <v>0.002001324927690728</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.85037854317592</v>
-      </c>
-      <c r="H5">
-        <v>0.85037854317592</v>
-      </c>
-      <c r="I5">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="J5">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.516541972970211</v>
-      </c>
-      <c r="N5">
-        <v>0.516541972970211</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.4392562104636235</v>
-      </c>
-      <c r="R5">
-        <v>0.4392562104636235</v>
-      </c>
-      <c r="S5">
-        <v>0.04099477569796833</v>
-      </c>
-      <c r="T5">
-        <v>0.04099477569796833</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>7.466229000000001</v>
+      </c>
+      <c r="H7">
+        <v>22.398687</v>
+      </c>
+      <c r="I7">
+        <v>0.1603344581013467</v>
+      </c>
+      <c r="J7">
+        <v>0.1613872284624099</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.1679753333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.503926</v>
+      </c>
+      <c r="O7">
+        <v>0.1710492886071064</v>
+      </c>
+      <c r="P7">
+        <v>0.1795354408331383</v>
+      </c>
+      <c r="Q7">
+        <v>1.254142305018</v>
+      </c>
+      <c r="R7">
+        <v>11.287280745162</v>
+      </c>
+      <c r="S7">
+        <v>0.02742509499744127</v>
+      </c>
+      <c r="T7">
+        <v>0.02897472720683716</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>7.466229000000001</v>
+      </c>
+      <c r="H8">
+        <v>22.398687</v>
+      </c>
+      <c r="I8">
+        <v>0.1603344581013467</v>
+      </c>
+      <c r="J8">
+        <v>0.1613872284624099</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.626867</v>
+      </c>
+      <c r="N8">
+        <v>1.880601</v>
+      </c>
+      <c r="O8">
+        <v>0.6383386910058478</v>
+      </c>
+      <c r="P8">
+        <v>0.6700081550986469</v>
+      </c>
+      <c r="Q8">
+        <v>4.680332574543001</v>
+      </c>
+      <c r="R8">
+        <v>42.12299317088701</v>
+      </c>
+      <c r="S8">
+        <v>0.1023476881075456</v>
+      </c>
+      <c r="T8">
+        <v>0.1081307591985831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>7.466229000000001</v>
+      </c>
+      <c r="H9">
+        <v>22.398687</v>
+      </c>
+      <c r="I9">
+        <v>0.1603344581013467</v>
+      </c>
+      <c r="J9">
+        <v>0.1613872284624099</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03086933333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.092608</v>
+      </c>
+      <c r="O9">
+        <v>0.03143424335979272</v>
+      </c>
+      <c r="P9">
+        <v>0.03299376913410951</v>
+      </c>
+      <c r="Q9">
+        <v>0.230477511744</v>
+      </c>
+      <c r="R9">
+        <v>2.074297605696</v>
+      </c>
+      <c r="S9">
+        <v>0.005039992374918223</v>
+      </c>
+      <c r="T9">
+        <v>0.005324772957082538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>7.466229000000001</v>
+      </c>
+      <c r="H10">
+        <v>22.398687</v>
+      </c>
+      <c r="I10">
+        <v>0.1603344581013467</v>
+      </c>
+      <c r="J10">
+        <v>0.1613872284624099</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.01706366666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.051191</v>
+      </c>
+      <c r="O10">
+        <v>0.01737593244461763</v>
+      </c>
+      <c r="P10">
+        <v>0.0182379927840381</v>
+      </c>
+      <c r="Q10">
+        <v>0.127401242913</v>
+      </c>
+      <c r="R10">
+        <v>1.146611186217</v>
+      </c>
+      <c r="S10">
+        <v>0.002785960712513377</v>
+      </c>
+      <c r="T10">
+        <v>0.002943379108133339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>7.466229000000001</v>
+      </c>
+      <c r="H11">
+        <v>22.398687</v>
+      </c>
+      <c r="I11">
+        <v>0.1603344581013467</v>
+      </c>
+      <c r="J11">
+        <v>0.1613872284624099</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.1392535</v>
+      </c>
+      <c r="N11">
+        <v>0.278507</v>
+      </c>
+      <c r="O11">
+        <v>0.1418018445826353</v>
+      </c>
+      <c r="P11">
+        <v>0.09922464215006736</v>
+      </c>
+      <c r="Q11">
+        <v>1.0396985200515</v>
+      </c>
+      <c r="R11">
+        <v>6.238191120309001</v>
+      </c>
+      <c r="S11">
+        <v>0.02273572190892822</v>
+      </c>
+      <c r="T11">
+        <v>0.01601358999177378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H12">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I12">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J12">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1679753333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.503926</v>
+      </c>
+      <c r="O12">
+        <v>0.1710492886071064</v>
+      </c>
+      <c r="P12">
+        <v>0.1795354408331383</v>
+      </c>
+      <c r="Q12">
+        <v>4.884689322233778</v>
+      </c>
+      <c r="R12">
+        <v>43.96220390010399</v>
+      </c>
+      <c r="S12">
+        <v>0.1068164817973552</v>
+      </c>
+      <c r="T12">
+        <v>0.112852058363379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H13">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I13">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J13">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.626867</v>
+      </c>
+      <c r="N13">
+        <v>1.880601</v>
+      </c>
+      <c r="O13">
+        <v>0.6383386910058478</v>
+      </c>
+      <c r="P13">
+        <v>0.6700081550986469</v>
+      </c>
+      <c r="Q13">
+        <v>18.22916782242266</v>
+      </c>
+      <c r="R13">
+        <v>164.062510401804</v>
+      </c>
+      <c r="S13">
+        <v>0.3986283352805531</v>
+      </c>
+      <c r="T13">
+        <v>0.4211524982045556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H14">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I14">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J14">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.03086933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.092608</v>
+      </c>
+      <c r="O14">
+        <v>0.03143424335979272</v>
+      </c>
+      <c r="P14">
+        <v>0.03299376913410951</v>
+      </c>
+      <c r="Q14">
+        <v>0.8976740806257777</v>
+      </c>
+      <c r="R14">
+        <v>8.079066725632</v>
+      </c>
+      <c r="S14">
+        <v>0.01962998683594312</v>
+      </c>
+      <c r="T14">
+        <v>0.02073916293447014</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H15">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I15">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J15">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01706366666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.051191</v>
+      </c>
+      <c r="O15">
+        <v>0.01737593244461763</v>
+      </c>
+      <c r="P15">
+        <v>0.0182379927840381</v>
+      </c>
+      <c r="Q15">
+        <v>0.4962080366848889</v>
+      </c>
+      <c r="R15">
+        <v>4.465872330163999</v>
+      </c>
+      <c r="S15">
+        <v>0.01085088389900186</v>
+      </c>
+      <c r="T15">
+        <v>0.01146400407932858</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>29.07980133333333</v>
+      </c>
+      <c r="H16">
+        <v>87.23940399999999</v>
+      </c>
+      <c r="I16">
+        <v>0.6244777903912161</v>
+      </c>
+      <c r="J16">
+        <v>0.6285781672949164</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+      <c r="M16">
+        <v>0.1392535</v>
+      </c>
+      <c r="N16">
+        <v>0.278507</v>
+      </c>
+      <c r="O16">
+        <v>0.1418018445826353</v>
+      </c>
+      <c r="P16">
+        <v>0.09922464215006736</v>
+      </c>
+      <c r="Q16">
+        <v>4.049464114971333</v>
+      </c>
+      <c r="R16">
+        <v>24.296784689828</v>
+      </c>
+      <c r="S16">
+        <v>0.08855210257836274</v>
+      </c>
+      <c r="T16">
+        <v>0.06237044371318326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H17">
+        <v>24.528474</v>
+      </c>
+      <c r="I17">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J17">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1679753333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.503926</v>
+      </c>
+      <c r="O17">
+        <v>0.1710492886071064</v>
+      </c>
+      <c r="P17">
+        <v>0.1795354408331383</v>
+      </c>
+      <c r="Q17">
+        <v>1.373392865436</v>
+      </c>
+      <c r="R17">
+        <v>12.360535788924</v>
+      </c>
+      <c r="S17">
+        <v>0.03003281976270609</v>
+      </c>
+      <c r="T17">
+        <v>0.03172979929359242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H18">
+        <v>24.528474</v>
+      </c>
+      <c r="I18">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J18">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.626867</v>
+      </c>
+      <c r="N18">
+        <v>1.880601</v>
+      </c>
+      <c r="O18">
+        <v>0.6383386910058478</v>
+      </c>
+      <c r="P18">
+        <v>0.6700081550986469</v>
+      </c>
+      <c r="Q18">
+        <v>5.125363636986</v>
+      </c>
+      <c r="R18">
+        <v>46.128272732874</v>
+      </c>
+      <c r="S18">
+        <v>0.1120794538852229</v>
+      </c>
+      <c r="T18">
+        <v>0.1184124103168505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H19">
+        <v>24.528474</v>
+      </c>
+      <c r="I19">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J19">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03086933333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.092608</v>
+      </c>
+      <c r="O19">
+        <v>0.03143424335979272</v>
+      </c>
+      <c r="P19">
+        <v>0.03299376913410951</v>
+      </c>
+      <c r="Q19">
+        <v>0.252392546688</v>
+      </c>
+      <c r="R19">
+        <v>2.271532920192</v>
+      </c>
+      <c r="S19">
+        <v>0.005519221815474267</v>
+      </c>
+      <c r="T19">
+        <v>0.005831080859056701</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H20">
+        <v>24.528474</v>
+      </c>
+      <c r="I20">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J20">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01706366666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.051191</v>
+      </c>
+      <c r="O20">
+        <v>0.01737593244461763</v>
+      </c>
+      <c r="P20">
+        <v>0.0182379927840381</v>
+      </c>
+      <c r="Q20">
+        <v>0.139515234726</v>
+      </c>
+      <c r="R20">
+        <v>1.255637112534</v>
+      </c>
+      <c r="S20">
+        <v>0.003050864762827653</v>
+      </c>
+      <c r="T20">
+        <v>0.003223251341741227</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>8.176158000000001</v>
+      </c>
+      <c r="H21">
+        <v>24.528474</v>
+      </c>
+      <c r="I21">
+        <v>0.1755799162175431</v>
+      </c>
+      <c r="J21">
+        <v>0.1767327896171896</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.5</v>
+      </c>
+      <c r="M21">
+        <v>0.1392535</v>
+      </c>
+      <c r="N21">
+        <v>0.278507</v>
+      </c>
+      <c r="O21">
+        <v>0.1418018445826353</v>
+      </c>
+      <c r="P21">
+        <v>0.09922464215006736</v>
+      </c>
+      <c r="Q21">
+        <v>1.138558618053</v>
+      </c>
+      <c r="R21">
+        <v>6.831351708318001</v>
+      </c>
+      <c r="S21">
+        <v>0.02489755599131218</v>
+      </c>
+      <c r="T21">
+        <v>0.01753624780594878</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.9112975</v>
+      </c>
+      <c r="H22">
+        <v>1.822595</v>
+      </c>
+      <c r="I22">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J22">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1679753333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.503926</v>
+      </c>
+      <c r="O22">
+        <v>0.1710492886071064</v>
+      </c>
+      <c r="P22">
+        <v>0.1795354408331383</v>
+      </c>
+      <c r="Q22">
+        <v>0.1530755013283333</v>
+      </c>
+      <c r="R22">
+        <v>0.91845300797</v>
+      </c>
+      <c r="S22">
+        <v>0.003347395386403327</v>
+      </c>
+      <c r="T22">
+        <v>0.002357691454572554</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.9112975</v>
+      </c>
+      <c r="H23">
+        <v>1.822595</v>
+      </c>
+      <c r="I23">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J23">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.626867</v>
+      </c>
+      <c r="N23">
+        <v>1.880601</v>
+      </c>
+      <c r="O23">
+        <v>0.6383386910058478</v>
+      </c>
+      <c r="P23">
+        <v>0.6700081550986469</v>
+      </c>
+      <c r="Q23">
+        <v>0.5712623299324999</v>
+      </c>
+      <c r="R23">
+        <v>3.427573979595</v>
+      </c>
+      <c r="S23">
+        <v>0.01249214192374571</v>
+      </c>
+      <c r="T23">
+        <v>0.008798666683522185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.9112975</v>
+      </c>
+      <c r="H24">
+        <v>1.822595</v>
+      </c>
+      <c r="I24">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J24">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.03086933333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.092608</v>
+      </c>
+      <c r="O24">
+        <v>0.03143424335979272</v>
+      </c>
+      <c r="P24">
+        <v>0.03299376913410951</v>
+      </c>
+      <c r="Q24">
+        <v>0.02813114629333333</v>
+      </c>
+      <c r="R24">
+        <v>0.16878687776</v>
+      </c>
+      <c r="S24">
+        <v>0.0006151609401857401</v>
+      </c>
+      <c r="T24">
+        <v>0.0004332800653767718</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.9112975</v>
+      </c>
+      <c r="H25">
+        <v>1.822595</v>
+      </c>
+      <c r="I25">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J25">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.01706366666666667</v>
+      </c>
+      <c r="N25">
+        <v>0.051191</v>
+      </c>
+      <c r="O25">
+        <v>0.01737593244461763</v>
+      </c>
+      <c r="P25">
+        <v>0.0182379927840381</v>
+      </c>
+      <c r="Q25">
+        <v>0.01555007677416667</v>
+      </c>
+      <c r="R25">
+        <v>0.093300460645</v>
+      </c>
+      <c r="S25">
+        <v>0.0003400430166837447</v>
+      </c>
+      <c r="T25">
+        <v>0.0002395045765668444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.9112975</v>
+      </c>
+      <c r="H26">
+        <v>1.822595</v>
+      </c>
+      <c r="I26">
+        <v>0.01956977087517835</v>
+      </c>
+      <c r="J26">
+        <v>0.01313217849150916</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.1392535</v>
+      </c>
+      <c r="N26">
+        <v>0.278507</v>
+      </c>
+      <c r="O26">
+        <v>0.1418018445826353</v>
+      </c>
+      <c r="P26">
+        <v>0.09922464215006736</v>
+      </c>
+      <c r="Q26">
+        <v>0.12690136641625</v>
+      </c>
+      <c r="R26">
+        <v>0.507605465665</v>
+      </c>
+      <c r="S26">
+        <v>0.002775029608159823</v>
+      </c>
+      <c r="T26">
+        <v>0.001303035711470808</v>
       </c>
     </row>
   </sheetData>
